--- a/public/shalguulagchid.xlsx
+++ b/public/shalguulagchid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usukhu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B271321F-06B6-D84A-8CAD-A999C2029036}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E11B417-D520-C84B-88C5-1107BBE9ADCC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Овог</t>
   </si>
@@ -31,29 +31,17 @@
     <t>Утасны дугаар</t>
   </si>
   <si>
-    <t>И-мейл хаяг</t>
+    <t>И-мэйл хаяг</t>
   </si>
   <si>
-    <t>ЗААВАР</t>
-  </si>
-  <si>
-    <t>Мөр хооронд хоосон зай үлдээхгүй байх.</t>
-  </si>
-  <si>
-    <t>Аль нэг мэдээллийг хоосон орхихгүй байх.</t>
-  </si>
-  <si>
-    <t>Баганын нэрийг өөрчлөхгүйгээр зөвхөн шалгуулагчдын мэдээллийг цувуулж бичнэ үү.</t>
-  </si>
-  <si>
-    <t>Файлын нэрийг өөрчлөхгүй байх.</t>
+    <t>№</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,16 +69,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,28 +100,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,95 +485,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="23.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F8" s="4" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F8:H9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F13:J14"/>
-    <mergeCell ref="F12:I12"/>
-  </mergeCells>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:D1" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:E1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>